--- a/kabu/株どん.xlsx
+++ b/kabu/株どん.xlsx
@@ -4,19 +4,26 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15075" windowHeight="4695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15075" windowHeight="4695" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="本" sheetId="1" r:id="rId1"/>
-    <sheet name="ネット" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="出版" sheetId="2" r:id="rId1"/>
+    <sheet name="すいとれ" sheetId="3" r:id="rId2"/>
+    <sheet name="チャート" sheetId="4" r:id="rId3"/>
+    <sheet name="本" sheetId="1" r:id="rId4"/>
+    <sheet name="ルール" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="work_有機EL" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">work_有機EL!$AC$6:$AI$92</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="374">
   <si>
     <t>株ドカン</t>
     <phoneticPr fontId="1"/>
@@ -574,12 +581,789 @@
     <t>これが損切りを行うメリットになります。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>買</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上昇トレンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下降トレンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陰のたすき線</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陽のたすき線</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボックストレンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下にレンジブレイク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上にレンジブレイク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダブルボトム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダブルトップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（天井圏）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（底値圏）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長い下ひげ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陰のつつみ線</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勢力線</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分ルール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25日移動平均線よりも上か？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25日移動平均線を境に反発しているか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高値から下げへの転換時、ローソク足は5回以上陰線の更新をしたか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高値から下げへの転換時、新値三本足は成り立っているか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大林組</t>
+  </si>
+  <si>
+    <t>東1</t>
+  </si>
+  <si>
+    <t>+14.0 (+1.09%)</t>
+  </si>
+  <si>
+    <t>高砂熱学工業</t>
+  </si>
+  <si>
+    <t>+25.0 (+1.39%)</t>
+  </si>
+  <si>
+    <t>中部飼料</t>
+  </si>
+  <si>
+    <t>+43.0 (+2.32%)</t>
+  </si>
+  <si>
+    <t>ＣＤＧ</t>
+  </si>
+  <si>
+    <t>+7.0 (+0.37%)</t>
+  </si>
+  <si>
+    <t>ゲオＨＬＤＧ</t>
+  </si>
+  <si>
+    <t>+34.0 (+2.28%)</t>
+  </si>
+  <si>
+    <t>プレサンスコーポレーション</t>
+  </si>
+  <si>
+    <t>+31.0 (+2.24%)</t>
+  </si>
+  <si>
+    <t>参天製薬</t>
+  </si>
+  <si>
+    <t>+11.0 (+0.64%)</t>
+  </si>
+  <si>
+    <t>長谷川香料</t>
+  </si>
+  <si>
+    <t>+27.0 (+1.30%)</t>
+  </si>
+  <si>
+    <t>ニチレキ</t>
+  </si>
+  <si>
+    <t>+8.0 (+0.61%)</t>
+  </si>
+  <si>
+    <t>コスモエネルギーＨＬＤＧ</t>
+  </si>
+  <si>
+    <t>+41.0 (+1.83%)</t>
+  </si>
+  <si>
+    <t>神戸製鋼所</t>
+  </si>
+  <si>
+    <t>+27.0 (+2.07%)</t>
+  </si>
+  <si>
+    <t>ジェイエフイーＨＬＤＧ</t>
+  </si>
+  <si>
+    <t>+56.0 (+2.58%)</t>
+  </si>
+  <si>
+    <t>横河ブリッジＨＬＤＧ</t>
+  </si>
+  <si>
+    <t>+29.0 (+1.51%)</t>
+  </si>
+  <si>
+    <t>三和ＨＬＤＧ</t>
+  </si>
+  <si>
+    <t>+25.0 (+2.10%)</t>
+  </si>
+  <si>
+    <t>タクマ</t>
+  </si>
+  <si>
+    <t>+17.0 (+1.39%)</t>
+  </si>
+  <si>
+    <t>大豊工業</t>
+  </si>
+  <si>
+    <t>+7.0 (+0.44%)</t>
+  </si>
+  <si>
+    <t>ＴＯＡ</t>
+  </si>
+  <si>
+    <t>+4.0 (+0.36%)</t>
+  </si>
+  <si>
+    <t>ドウシシャ</t>
+  </si>
+  <si>
+    <t>+35.0 (+1.57%)</t>
+  </si>
+  <si>
+    <t>西松屋チェーン</t>
+  </si>
+  <si>
+    <t>+9.0 (+0.79%)</t>
+  </si>
+  <si>
+    <t>キヤノン電子</t>
+  </si>
+  <si>
+    <t>+59.0 (+2.73%)</t>
+  </si>
+  <si>
+    <t>タムロン</t>
+  </si>
+  <si>
+    <t>+4.0 (+0.20%)</t>
+  </si>
+  <si>
+    <t>リコー</t>
+  </si>
+  <si>
+    <t>+17.0 (+1.58%)</t>
+  </si>
+  <si>
+    <t>住友商事</t>
+  </si>
+  <si>
+    <t>+6.5 (+0.42%)</t>
+  </si>
+  <si>
+    <t>リンガーハット</t>
+  </si>
+  <si>
+    <t>+38.0 (+1.55%)</t>
+  </si>
+  <si>
+    <t>中央倉庫</t>
+  </si>
+  <si>
+    <t>+38.0 (+3.62%)</t>
+  </si>
+  <si>
+    <t>キムラユニティー</t>
+  </si>
+  <si>
+    <t>+10.0 (+0.87%)</t>
+  </si>
+  <si>
+    <t>内外トランスライン</t>
+  </si>
+  <si>
+    <t>+44.0 (+3.19%)</t>
+  </si>
+  <si>
+    <t>関西電力</t>
+  </si>
+  <si>
+    <t>+24.5 (+1.63%)</t>
+  </si>
+  <si>
+    <t>乃村工芸社</t>
+  </si>
+  <si>
+    <t>+29.0 (+1.24%)</t>
+  </si>
+  <si>
+    <t>丹青社</t>
+  </si>
+  <si>
+    <t>-22.0 (-1.83%)</t>
+  </si>
+  <si>
+    <t>上昇トレンドか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1ヶ月間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弱上ヒゲ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すでにあがりきった感</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>転換してるかも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25日平均線と横一線</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3本という特殊</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三角持合、2239円超えれば買い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤４足のため、引目</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有機EL関連銘柄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かぶたんで有機EL関連を検索</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有機EL関連NEWSを一通り確認し、銘柄を特定する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三井松島</t>
+  </si>
+  <si>
+    <t>東１</t>
+  </si>
+  <si>
+    <t>東レ</t>
+  </si>
+  <si>
+    <t>ダイニック</t>
+  </si>
+  <si>
+    <t>小松精</t>
+  </si>
+  <si>
+    <t>昭電工</t>
+  </si>
+  <si>
+    <t>住友化</t>
+  </si>
+  <si>
+    <t>東ソー</t>
+  </si>
+  <si>
+    <t>保土谷</t>
+  </si>
+  <si>
+    <t>三井化学</t>
+  </si>
+  <si>
+    <t>ＪＳＲ</t>
+  </si>
+  <si>
+    <t>東応化</t>
+  </si>
+  <si>
+    <t>三菱ケミＨＤ</t>
+  </si>
+  <si>
+    <t>住友ベ</t>
+  </si>
+  <si>
+    <t>ゼオン</t>
+  </si>
+  <si>
+    <t>宇部興</t>
+  </si>
+  <si>
+    <t>群栄化</t>
+  </si>
+  <si>
+    <t>ポラテクノ</t>
+  </si>
+  <si>
+    <t>ＪＱ</t>
+  </si>
+  <si>
+    <t>マナック</t>
+  </si>
+  <si>
+    <t>東２</t>
+  </si>
+  <si>
+    <t>広栄化学</t>
+  </si>
+  <si>
+    <t>日本ペＨＤ</t>
+  </si>
+  <si>
+    <t>ＤＩＣ</t>
+  </si>
+  <si>
+    <t>洋インキＨＤ</t>
+  </si>
+  <si>
+    <t>富士フイルム</t>
+  </si>
+  <si>
+    <t>ケミプロ</t>
+  </si>
+  <si>
+    <t>東洋合成</t>
+  </si>
+  <si>
+    <t>デクセリ</t>
+  </si>
+  <si>
+    <t>出光興産</t>
+  </si>
+  <si>
+    <t>ＪＸＴＧ</t>
+  </si>
+  <si>
+    <t>アキレス</t>
+  </si>
+  <si>
+    <t>旭硝子</t>
+  </si>
+  <si>
+    <t>日電硝</t>
+  </si>
+  <si>
+    <t>倉元</t>
+  </si>
+  <si>
+    <t>新日鉄住金</t>
+  </si>
+  <si>
+    <t>三井金</t>
+  </si>
+  <si>
+    <t>三菱マ</t>
+  </si>
+  <si>
+    <t>ＨＩＯＫＩ</t>
+  </si>
+  <si>
+    <t>ジオマテック</t>
+  </si>
+  <si>
+    <t>フルヤ金属</t>
+  </si>
+  <si>
+    <t>日写印</t>
+  </si>
+  <si>
+    <t>リンテック</t>
+  </si>
+  <si>
+    <t>部材・部品関連</t>
+  </si>
+  <si>
+    <t>中外炉</t>
+  </si>
+  <si>
+    <t>藤ゴム</t>
+  </si>
+  <si>
+    <t>オハラ</t>
+  </si>
+  <si>
+    <t>ガイシ</t>
+  </si>
+  <si>
+    <t>報国鉄</t>
+  </si>
+  <si>
+    <t>日製鋼</t>
+  </si>
+  <si>
+    <t>日軽金ＨＤ</t>
+  </si>
+  <si>
+    <t>野村マイクロ</t>
+  </si>
+  <si>
+    <t>平田機工</t>
+  </si>
+  <si>
+    <t>マルマエ</t>
+  </si>
+  <si>
+    <t>東Ｍ</t>
+  </si>
+  <si>
+    <t>タツモ</t>
+  </si>
+  <si>
+    <t>ワイエイシイ</t>
+  </si>
+  <si>
+    <t>住友重</t>
+  </si>
+  <si>
+    <t>タカトリ</t>
+  </si>
+  <si>
+    <t>ダイフク</t>
+  </si>
+  <si>
+    <t>昭和真空</t>
+  </si>
+  <si>
+    <t>日電産</t>
+  </si>
+  <si>
+    <t>ダイヘン</t>
+  </si>
+  <si>
+    <t>日新電</t>
+  </si>
+  <si>
+    <t>ウインテスト</t>
+  </si>
+  <si>
+    <t>アルバック</t>
+  </si>
+  <si>
+    <t>フェローテク</t>
+  </si>
+  <si>
+    <t>三井造</t>
+  </si>
+  <si>
+    <t>日立造</t>
+  </si>
+  <si>
+    <t>三菱重</t>
+  </si>
+  <si>
+    <t>ダイトロン</t>
+  </si>
+  <si>
+    <t>クボテック</t>
+  </si>
+  <si>
+    <t>助川電気</t>
+  </si>
+  <si>
+    <t>Ｖテク</t>
+  </si>
+  <si>
+    <t>スクリン</t>
+  </si>
+  <si>
+    <t>キヤノン</t>
+  </si>
+  <si>
+    <t>大日印</t>
+  </si>
+  <si>
+    <t>東エレク</t>
+  </si>
+  <si>
+    <t>日立ハイテク</t>
+  </si>
+  <si>
+    <t>製造装置</t>
+  </si>
+  <si>
+    <t>住友化学</t>
+  </si>
+  <si>
+    <t>コニカミノルタ</t>
+  </si>
+  <si>
+    <t>保土谷化学工業</t>
+  </si>
+  <si>
+    <t>カネカ</t>
+  </si>
+  <si>
+    <t>ジャパンディスプレイ</t>
+  </si>
+  <si>
+    <t>東京エレクトロン</t>
+  </si>
+  <si>
+    <t>ケミプロ化成</t>
+  </si>
+  <si>
+    <t>倉元製作所</t>
+  </si>
+  <si>
+    <t>日新電機</t>
+  </si>
+  <si>
+    <t>みんかぶ関連度上位</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四季報オンライン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保土谷化学</t>
+  </si>
+  <si>
+    <t>Ｖテクノロジー</t>
+  </si>
+  <si>
+    <t>SCREEN</t>
+  </si>
+  <si>
+    <t>昭和電工</t>
+  </si>
+  <si>
+    <t>カシオ計算機</t>
+  </si>
+  <si>
+    <t>ブイ・テクノロジー</t>
+  </si>
+  <si>
+    <t>日本精機</t>
+  </si>
+  <si>
+    <t>パイオニア</t>
+  </si>
+  <si>
+    <t>ＭＯＲＥＳＣＯ</t>
+  </si>
+  <si>
+    <t>中外炉工業</t>
+  </si>
+  <si>
+    <t>双葉電子工業</t>
+  </si>
+  <si>
+    <t>パシフィックシステム</t>
+  </si>
+  <si>
+    <t>テクノアルファ</t>
+  </si>
+  <si>
+    <t>新日鐵住金</t>
+  </si>
+  <si>
+    <t>日産化学工業</t>
+  </si>
+  <si>
+    <t>株マップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保土ヶ谷化学工業</t>
+  </si>
+  <si>
+    <t>スガイ化学</t>
+  </si>
+  <si>
+    <t>サマリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株価</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>話題</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケミプロ化成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三菱ケミＨＤ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規参入</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火事？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イトカン保有</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規参入</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高値超買い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャート分析</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横ばい気になる　１４００超えれば勝ち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダブルトップぎり、667円超えれば勝ち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すでに勝ち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下降トレンドであり、厳しめ　出遅れでチャンスあり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日足は×だが転換可能性あり、週足では△よりの○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強上髭がネック、また三層が見えるのもネック、雲上○、RSI60%許容、433円超えれば勝ち見えてくる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銘柄名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関連数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓数が大きいほど、関連</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現株価</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総まとめとチャート分析</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,8 +1396,54 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="�ｭ�ｳ �ｰ繧ｴ繧ｷ繝�け"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0101"/>
+      <name val="�ｭ�ｳ �ｰ繧ｴ繧ｷ繝�け"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF4EBA00"/>
+      <name val="�ｭ�ｳ �ｰ繧ｴ繧ｷ繝�け"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,8 +1474,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -668,13 +1510,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC3C3C3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC3C3C3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,8 +1568,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1010,6 +1919,721 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:D120"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="25" max="25" width="34" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="17.25">
+      <c r="B2" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="C52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="C54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="C55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="C56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="C57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="C58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="C59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="C60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="C61" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="C62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="C63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="C64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="D113" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="D114" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="D115" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="D116" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:Q26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:17">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17">
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17">
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="3:17">
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17">
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="3:17">
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="3:17">
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17">
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17">
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.625" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4">
+      <c r="C3" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="17.25" customHeight="1">
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="17.25" customHeight="1">
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="17.25" customHeight="1"/>
+    <row r="8" spans="2:4" ht="17.25" customHeight="1"/>
+    <row r="9" spans="2:4" ht="17.25" customHeight="1"/>
+    <row r="10" spans="2:4" ht="17.25" customHeight="1"/>
+    <row r="11" spans="2:4" ht="17.25" customHeight="1"/>
+    <row r="12" spans="2:4" ht="17.25" customHeight="1"/>
+    <row r="13" spans="2:4" ht="17.25" customHeight="1"/>
+    <row r="14" spans="2:4" ht="17.25" customHeight="1"/>
+    <row r="15" spans="2:4" ht="17.25" customHeight="1"/>
+    <row r="16" spans="2:4" ht="17.25" customHeight="1"/>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="C21" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1149,406 +2773,59 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D120"/>
+  <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B56" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="25" max="25" width="34" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:3" ht="17.25">
-      <c r="B2" s="11" t="s">
-        <v>69</v>
+    <row r="2" spans="2:3">
+      <c r="B2" s="13" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" t="s">
-        <v>71</v>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>72</v>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" t="s">
-        <v>96</v>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="2:3">
+      <c r="B10">
+        <v>4</v>
+      </c>
       <c r="C10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="C11" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="2:3">
+      <c r="B12">
+        <v>5</v>
+      </c>
       <c r="C12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="C13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="C16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3">
-      <c r="C39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3">
-      <c r="C40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3">
-      <c r="C43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3">
-      <c r="C44" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3">
-      <c r="C46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3">
-      <c r="C47" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="C51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="C52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="C53" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="C54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="C55" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="C56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="C57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="C58" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="C59" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="C60" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="C61" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="C62" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="C63" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="C64" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3">
-      <c r="C65" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3">
-      <c r="C66" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3">
-      <c r="C67" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3">
-      <c r="C68" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3">
-      <c r="C69" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3">
-      <c r="C71" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3">
-      <c r="C73" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3">
-      <c r="C75" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3">
-      <c r="C76" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3">
-      <c r="C77" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="78" spans="3:3">
-      <c r="C78" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3">
-      <c r="C79" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3">
-      <c r="C81" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4">
-      <c r="B108" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4">
-      <c r="C110" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4">
-      <c r="D112" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4">
-      <c r="D113" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4">
-      <c r="D114" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4">
-      <c r="D115" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4">
-      <c r="D116" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4">
-      <c r="B120" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1558,214 +2835,3786 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:Q26"/>
+  <dimension ref="B1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17">
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17">
+    <row r="1" spans="2:16">
+      <c r="B1" s="28">
+        <v>42984</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <v>3</v>
+      </c>
+      <c r="J1">
+        <v>4</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N1" t="s">
+        <v>225</v>
+      </c>
+      <c r="O1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P1" s="23"/>
+    </row>
+    <row r="2" spans="2:16" ht="14.25" thickBot="1">
+      <c r="B2" s="14">
+        <v>1802</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1294</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" t="s">
+        <v>221</v>
+      </c>
+      <c r="L2" t="s">
+        <v>223</v>
+      </c>
+      <c r="M2" t="s">
+        <v>224</v>
+      </c>
+      <c r="N2">
+        <v>1263</v>
+      </c>
+      <c r="O2">
+        <v>1305</v>
+      </c>
+      <c r="P2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" ht="14.25" thickBot="1">
+      <c r="B3" s="18">
+        <v>1969</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="20">
+        <v>1818</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="14.25" thickBot="1">
+      <c r="B4" s="14">
+        <v>2053</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1895</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>221</v>
+      </c>
+      <c r="K4" t="s">
+        <v>221</v>
+      </c>
+      <c r="L4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="14.25" thickBot="1">
+      <c r="B5" s="18">
+        <v>2487</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="20">
+        <v>1899</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>221</v>
+      </c>
+      <c r="K5" t="s">
+        <v>221</v>
+      </c>
+      <c r="L5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="14.25" thickBot="1">
+      <c r="B6" s="14">
+        <v>2681</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1528</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>221</v>
+      </c>
+      <c r="K6" t="s">
+        <v>221</v>
+      </c>
+      <c r="L6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="14.25" thickBot="1">
+      <c r="B7" s="18">
+        <v>3254</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1414</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M7" t="s">
+        <v>224</v>
+      </c>
+      <c r="N7">
+        <v>1400</v>
+      </c>
+      <c r="O7">
+        <v>1434</v>
+      </c>
+      <c r="P7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="14.25" thickBot="1">
+      <c r="B8" s="14">
+        <v>4536</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1721</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>221</v>
+      </c>
+      <c r="K8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="14.25" thickBot="1">
+      <c r="B9" s="18">
+        <v>4958</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="20">
+        <v>2110</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="14.25" thickBot="1">
+      <c r="B10" s="14">
+        <v>5011</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1310</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>221</v>
+      </c>
+      <c r="L10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="14.25" thickBot="1">
+      <c r="B11" s="18">
+        <v>5021</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="20">
+        <v>2276</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="14.25" thickBot="1">
+      <c r="B12" s="14">
+        <v>5406</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1331</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="14.25" thickBot="1">
+      <c r="B13" s="18">
+        <v>5411</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="20">
+        <v>2227</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>235</v>
+      </c>
+      <c r="I13" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="14.25" thickBot="1">
+      <c r="B14" s="14">
+        <v>5911</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1945</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="14.25" thickBot="1">
+      <c r="B15" s="18">
+        <v>5929</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="20">
+        <v>1216</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="14.25" thickBot="1">
+      <c r="B16" s="14">
+        <v>6013</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1243</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B17" s="18">
+        <v>6470</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="20">
+        <v>1590</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B18" s="14">
+        <v>6809</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1120</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B19" s="18">
+        <v>7483</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="20">
+        <v>2263</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B20" s="14">
+        <v>7545</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1149</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B21" s="18">
+        <v>7739</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="20">
+        <v>2220</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B22" s="14">
+        <v>7740</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="16">
+        <v>2027</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B23" s="18">
+        <v>7752</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="20">
+        <v>1090</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B24" s="14">
+        <v>8053</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="16">
+        <v>1561</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" t="s">
+        <v>221</v>
+      </c>
+      <c r="K24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B25" s="18">
+        <v>8200</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="20">
+        <v>2497</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B26" s="14">
+        <v>9319</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" s="16">
+        <v>1089</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B27" s="18">
+        <v>9368</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="20">
+        <v>1161</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" t="s">
+        <v>221</v>
+      </c>
+      <c r="L27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B28" s="14">
+        <v>9384</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="16">
+        <v>1425</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" t="s">
+        <v>221</v>
+      </c>
+      <c r="K28" t="s">
+        <v>221</v>
+      </c>
+      <c r="L28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B29" s="18">
+        <v>9503</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="20">
+        <v>1530.5</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B30" s="14">
+        <v>9716</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="16">
+        <v>2374</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B31" s="18">
+        <v>9743</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="20">
+        <v>1180</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" t="s">
+        <v>221</v>
+      </c>
+      <c r="K31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="javascript: onClickStockItem('1802','1')"/>
+    <hyperlink ref="C2" r:id="rId2" display="javascript: onClickStockItem('1802','1')"/>
+    <hyperlink ref="B3" r:id="rId3" display="javascript: onClickStockItem('1969','1')"/>
+    <hyperlink ref="C3" r:id="rId4" display="javascript: onClickStockItem('1969','1')"/>
+    <hyperlink ref="B4" r:id="rId5" display="javascript: onClickStockItem('2053','1')"/>
+    <hyperlink ref="C4" r:id="rId6" display="javascript: onClickStockItem('2053','1')"/>
+    <hyperlink ref="B5" r:id="rId7" display="javascript: onClickStockItem('2487','1')"/>
+    <hyperlink ref="C5" r:id="rId8" display="javascript: onClickStockItem('2487','1')"/>
+    <hyperlink ref="B6" r:id="rId9" display="javascript: onClickStockItem('2681','1')"/>
+    <hyperlink ref="C6" r:id="rId10" display="javascript: onClickStockItem('2681','1')"/>
+    <hyperlink ref="B7" r:id="rId11" display="javascript: onClickStockItem('3254','1')"/>
+    <hyperlink ref="C7" r:id="rId12" display="javascript: onClickStockItem('3254','1')"/>
+    <hyperlink ref="B8" r:id="rId13" display="javascript: onClickStockItem('4536','1')"/>
+    <hyperlink ref="C8" r:id="rId14" display="javascript: onClickStockItem('4536','1')"/>
+    <hyperlink ref="B9" r:id="rId15" display="javascript: onClickStockItem('4958','1')"/>
+    <hyperlink ref="C9" r:id="rId16" display="javascript: onClickStockItem('4958','1')"/>
+    <hyperlink ref="B10" r:id="rId17" display="javascript: onClickStockItem('5011','1')"/>
+    <hyperlink ref="C10" r:id="rId18" display="javascript: onClickStockItem('5011','1')"/>
+    <hyperlink ref="B11" r:id="rId19" display="javascript: onClickStockItem('5021','1')"/>
+    <hyperlink ref="C11" r:id="rId20" display="javascript: onClickStockItem('5021','1')"/>
+    <hyperlink ref="B12" r:id="rId21" display="javascript: onClickStockItem('5406','1')"/>
+    <hyperlink ref="C12" r:id="rId22" display="javascript: onClickStockItem('5406','1')"/>
+    <hyperlink ref="B13" r:id="rId23" display="javascript: onClickStockItem('5411','1')"/>
+    <hyperlink ref="C13" r:id="rId24" display="javascript: onClickStockItem('5411','1')"/>
+    <hyperlink ref="B14" r:id="rId25" display="javascript: onClickStockItem('5911','1')"/>
+    <hyperlink ref="C14" r:id="rId26" display="javascript: onClickStockItem('5911','1')"/>
+    <hyperlink ref="B15" r:id="rId27" display="javascript: onClickStockItem('5929','1')"/>
+    <hyperlink ref="C15" r:id="rId28" display="javascript: onClickStockItem('5929','1')"/>
+    <hyperlink ref="B16" r:id="rId29" display="javascript: onClickStockItem('6013','1')"/>
+    <hyperlink ref="C16" r:id="rId30" display="javascript: onClickStockItem('6013','1')"/>
+    <hyperlink ref="B17" r:id="rId31" display="javascript: onClickStockItem('6470','1')"/>
+    <hyperlink ref="C17" r:id="rId32" display="javascript: onClickStockItem('6470','1')"/>
+    <hyperlink ref="B18" r:id="rId33" display="javascript: onClickStockItem('6809','1')"/>
+    <hyperlink ref="C18" r:id="rId34" display="javascript: onClickStockItem('6809','1')"/>
+    <hyperlink ref="B19" r:id="rId35" display="javascript: onClickStockItem('7483','1')"/>
+    <hyperlink ref="C19" r:id="rId36" display="javascript: onClickStockItem('7483','1')"/>
+    <hyperlink ref="B20" r:id="rId37" display="javascript: onClickStockItem('7545','1')"/>
+    <hyperlink ref="C20" r:id="rId38" display="javascript: onClickStockItem('7545','1')"/>
+    <hyperlink ref="B21" r:id="rId39" display="javascript: onClickStockItem('7739','1')"/>
+    <hyperlink ref="C21" r:id="rId40" display="javascript: onClickStockItem('7739','1')"/>
+    <hyperlink ref="B22" r:id="rId41" display="javascript: onClickStockItem('7740','1')"/>
+    <hyperlink ref="C22" r:id="rId42" display="javascript: onClickStockItem('7740','1')"/>
+    <hyperlink ref="B23" r:id="rId43" display="javascript: onClickStockItem('7752','1')"/>
+    <hyperlink ref="C23" r:id="rId44" display="javascript: onClickStockItem('7752','1')"/>
+    <hyperlink ref="B24" r:id="rId45" display="javascript: onClickStockItem('8053','1')"/>
+    <hyperlink ref="C24" r:id="rId46" display="javascript: onClickStockItem('8053','1')"/>
+    <hyperlink ref="B25" r:id="rId47" display="javascript: onClickStockItem('8200','1')"/>
+    <hyperlink ref="C25" r:id="rId48" display="javascript: onClickStockItem('8200','1')"/>
+    <hyperlink ref="B26" r:id="rId49" display="javascript: onClickStockItem('9319','1')"/>
+    <hyperlink ref="C26" r:id="rId50" display="javascript: onClickStockItem('9319','1')"/>
+    <hyperlink ref="B27" r:id="rId51" display="javascript: onClickStockItem('9368','1')"/>
+    <hyperlink ref="C27" r:id="rId52" display="javascript: onClickStockItem('9368','1')"/>
+    <hyperlink ref="B28" r:id="rId53" display="javascript: onClickStockItem('9384','1')"/>
+    <hyperlink ref="C28" r:id="rId54" display="javascript: onClickStockItem('9384','1')"/>
+    <hyperlink ref="B29" r:id="rId55" display="javascript: onClickStockItem('9503','1')"/>
+    <hyperlink ref="C29" r:id="rId56" display="javascript: onClickStockItem('9503','1')"/>
+    <hyperlink ref="B30" r:id="rId57" display="javascript: onClickStockItem('9716','1')"/>
+    <hyperlink ref="C30" r:id="rId58" display="javascript: onClickStockItem('9716','1')"/>
+    <hyperlink ref="B31" r:id="rId59" display="javascript: onClickStockItem('9743','1')"/>
+    <hyperlink ref="C31" r:id="rId60" display="javascript: onClickStockItem('9743','1')"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:AQ111"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AL6" sqref="AL6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="21" hidden="1" customWidth="1"/>
+    <col min="19" max="26" width="0" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:43">
+      <c r="B2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="2:43">
+      <c r="B4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="2:43">
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17">
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="2:43">
+      <c r="AC6" t="s">
+        <v>349</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>373</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="2:43">
+      <c r="AC7">
+        <v>4112</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>347</v>
+      </c>
+      <c r="AE7">
+        <v>5</v>
+      </c>
+      <c r="AF7" s="27">
+        <v>7240</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>368</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>370</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>372</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="2:43">
       <c r="C8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17">
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17">
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17">
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-    </row>
-    <row r="14" spans="2:17">
+        <v>283</v>
+      </c>
+      <c r="H8" t="s">
+        <v>319</v>
+      </c>
+      <c r="M8" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>330</v>
+      </c>
+      <c r="U8" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC8">
+        <v>4960</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE8">
+        <v>4</v>
+      </c>
+      <c r="AF8" s="27">
+        <v>414</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>356</v>
+      </c>
+      <c r="AL8">
+        <v>4960</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>353</v>
+      </c>
+      <c r="AN8">
+        <v>4</v>
+      </c>
+      <c r="AO8" s="27">
+        <v>414</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="2:43">
+      <c r="C9">
+        <v>518</v>
+      </c>
+      <c r="D9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" s="24">
+        <v>1433</v>
+      </c>
+      <c r="H9">
+        <v>1964</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="J9" t="s">
+        <v>241</v>
+      </c>
+      <c r="K9">
+        <v>215</v>
+      </c>
+      <c r="M9">
+        <v>4005</v>
+      </c>
+      <c r="N9" t="s">
+        <v>320</v>
+      </c>
+      <c r="O9">
+        <v>654</v>
+      </c>
+      <c r="Q9">
+        <v>4112</v>
+      </c>
+      <c r="R9" t="s">
+        <v>331</v>
+      </c>
+      <c r="S9">
+        <v>273</v>
+      </c>
+      <c r="U9">
+        <v>4112</v>
+      </c>
+      <c r="V9" t="s">
+        <v>322</v>
+      </c>
+      <c r="W9" s="27">
+        <v>6950</v>
+      </c>
+      <c r="Y9">
+        <v>5216</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC9">
+        <v>5019</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE9">
+        <v>4</v>
+      </c>
+      <c r="AF9">
+        <v>2777</v>
+      </c>
+      <c r="AL9">
+        <v>6641</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>328</v>
+      </c>
+      <c r="AN9">
+        <v>4</v>
+      </c>
+      <c r="AO9">
+        <v>1301</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="2:43">
+      <c r="C10">
+        <v>3402</v>
+      </c>
+      <c r="D10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" s="26">
+        <v>1026.5</v>
+      </c>
+      <c r="H10">
+        <v>5121</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="J10" t="s">
+        <v>241</v>
+      </c>
+      <c r="K10">
+        <v>866</v>
+      </c>
+      <c r="M10">
+        <v>4902</v>
+      </c>
+      <c r="N10" t="s">
+        <v>321</v>
+      </c>
+      <c r="O10">
+        <v>838</v>
+      </c>
+      <c r="Q10">
+        <v>4960</v>
+      </c>
+      <c r="R10" t="s">
+        <v>326</v>
+      </c>
+      <c r="S10">
+        <v>265</v>
+      </c>
+      <c r="U10">
+        <v>4004</v>
+      </c>
+      <c r="V10" t="s">
+        <v>334</v>
+      </c>
+      <c r="W10" s="27">
+        <v>3030</v>
+      </c>
+      <c r="Y10">
+        <v>4960</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC10">
+        <v>5216</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE10">
+        <v>4</v>
+      </c>
+      <c r="AF10">
+        <v>215</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL10">
+        <v>4005</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>320</v>
+      </c>
+      <c r="AN10">
+        <v>3</v>
+      </c>
+      <c r="AO10">
+        <v>665</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="2:43">
+      <c r="C11">
+        <v>3551</v>
+      </c>
+      <c r="D11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11">
+        <v>199</v>
+      </c>
+      <c r="H11">
+        <v>5218</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="J11" t="s">
+        <v>241</v>
+      </c>
+      <c r="K11" s="24">
+        <v>1576</v>
+      </c>
+      <c r="M11">
+        <v>5019</v>
+      </c>
+      <c r="N11" t="s">
+        <v>269</v>
+      </c>
+      <c r="O11" s="24">
+        <v>2783</v>
+      </c>
+      <c r="Q11">
+        <v>5019</v>
+      </c>
+      <c r="R11" t="s">
+        <v>269</v>
+      </c>
+      <c r="S11" s="24">
+        <v>2328</v>
+      </c>
+      <c r="T11" s="24"/>
+      <c r="U11">
+        <v>6952</v>
+      </c>
+      <c r="V11" t="s">
+        <v>335</v>
+      </c>
+      <c r="W11" s="27">
+        <v>1511</v>
+      </c>
+      <c r="Y11">
+        <v>4112</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC11">
+        <v>6258</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE11">
+        <v>4</v>
+      </c>
+      <c r="AF11">
+        <v>10260</v>
+      </c>
+      <c r="AL11">
+        <v>6907</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AN11">
+        <v>2</v>
+      </c>
+      <c r="AO11">
+        <v>927</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="2:43">
+      <c r="C12">
+        <v>3580</v>
+      </c>
+      <c r="D12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12">
+        <v>848</v>
+      </c>
+      <c r="H12">
+        <v>5333</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="J12" t="s">
+        <v>241</v>
+      </c>
+      <c r="K12" s="24">
+        <v>2008</v>
+      </c>
+      <c r="M12">
+        <v>6728</v>
+      </c>
+      <c r="N12" t="s">
+        <v>305</v>
+      </c>
+      <c r="O12" s="24">
+        <v>5880</v>
+      </c>
+      <c r="Q12">
+        <v>5216</v>
+      </c>
+      <c r="R12" t="s">
+        <v>327</v>
+      </c>
+      <c r="S12">
+        <v>267</v>
+      </c>
+      <c r="U12">
+        <v>4005</v>
+      </c>
+      <c r="V12" t="s">
+        <v>320</v>
+      </c>
+      <c r="W12" s="27">
+        <v>654</v>
+      </c>
+      <c r="Y12">
+        <v>4364</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC12">
+        <v>6641</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE12">
+        <v>4</v>
+      </c>
+      <c r="AF12">
+        <v>1301</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>356</v>
+      </c>
+      <c r="AL12">
+        <v>6266</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO12">
+        <v>1758</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="2:43">
+      <c r="C13">
+        <v>4004</v>
+      </c>
+      <c r="D13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" s="24">
+        <v>3030</v>
+      </c>
+      <c r="H13">
+        <v>5542</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="J13" t="s">
+        <v>258</v>
+      </c>
+      <c r="K13" s="24">
+        <v>1249</v>
+      </c>
+      <c r="M13">
+        <v>7751</v>
+      </c>
+      <c r="N13" t="s">
+        <v>315</v>
+      </c>
+      <c r="O13" s="24">
+        <v>3715</v>
+      </c>
+      <c r="Q13">
+        <v>6258</v>
+      </c>
+      <c r="R13" t="s">
+        <v>292</v>
+      </c>
+      <c r="S13" s="24">
+        <v>5720</v>
+      </c>
+      <c r="T13" s="24"/>
+      <c r="U13">
+        <v>6728</v>
+      </c>
+      <c r="V13" t="s">
+        <v>305</v>
+      </c>
+      <c r="W13" s="27">
+        <v>5880</v>
+      </c>
+      <c r="Y13">
+        <v>4120</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC13">
+        <v>6728</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE13">
+        <v>4</v>
+      </c>
+      <c r="AF13">
+        <v>6030</v>
+      </c>
+      <c r="AL13">
+        <v>7709</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AO13">
+        <v>538</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>221</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="2:43">
+      <c r="C14">
+        <v>4005</v>
+      </c>
       <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17">
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17">
+        <v>246</v>
+      </c>
+      <c r="E14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14">
+        <v>654</v>
+      </c>
+      <c r="H14">
+        <v>5631</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="J14" t="s">
+        <v>241</v>
+      </c>
+      <c r="K14" s="24">
+        <v>2199</v>
+      </c>
+      <c r="M14">
+        <v>4112</v>
+      </c>
+      <c r="N14" t="s">
+        <v>322</v>
+      </c>
+      <c r="O14" s="24">
+        <v>6950</v>
+      </c>
+      <c r="Q14">
+        <v>6641</v>
+      </c>
+      <c r="R14" t="s">
+        <v>328</v>
+      </c>
+      <c r="S14" s="24">
+        <v>1430</v>
+      </c>
+      <c r="T14" s="24"/>
+      <c r="U14">
+        <v>5019</v>
+      </c>
+      <c r="V14" t="s">
+        <v>269</v>
+      </c>
+      <c r="W14" s="27">
+        <v>2783</v>
+      </c>
+      <c r="Y14">
+        <v>6907</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC14">
+        <v>7717</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE14">
+        <v>4</v>
+      </c>
+      <c r="AF14">
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="15" spans="2:43">
+      <c r="C15">
+        <v>4042</v>
+      </c>
+      <c r="D15" t="s">
+        <v>247</v>
+      </c>
+      <c r="E15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F15" s="24">
+        <v>1277</v>
+      </c>
+      <c r="H15">
+        <v>5703</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="J15" t="s">
+        <v>241</v>
+      </c>
+      <c r="K15">
+        <v>324</v>
+      </c>
+      <c r="M15">
+        <v>4118</v>
+      </c>
+      <c r="N15" t="s">
+        <v>323</v>
+      </c>
+      <c r="O15">
+        <v>840</v>
+      </c>
+      <c r="Q15">
+        <v>6721</v>
+      </c>
+      <c r="R15" t="s">
+        <v>304</v>
+      </c>
+      <c r="S15">
+        <v>128</v>
+      </c>
+      <c r="U15">
+        <v>7717</v>
+      </c>
+      <c r="V15" t="s">
+        <v>336</v>
+      </c>
+      <c r="W15" s="27">
+        <v>17950</v>
+      </c>
+      <c r="Y15">
+        <v>6258</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC15">
+        <v>4005</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE15">
+        <v>3</v>
+      </c>
+      <c r="AF15">
+        <v>665</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16" spans="2:43">
+      <c r="C16">
+        <v>4112</v>
+      </c>
       <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="3:17">
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17">
+        <v>248</v>
+      </c>
+      <c r="E16" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16" s="24">
+        <v>6950</v>
+      </c>
+      <c r="H16">
+        <v>6254</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="J16" t="s">
+        <v>258</v>
+      </c>
+      <c r="K16">
+        <v>822</v>
+      </c>
+      <c r="M16">
+        <v>6258</v>
+      </c>
+      <c r="N16" t="s">
+        <v>292</v>
+      </c>
+      <c r="O16" s="24">
+        <v>10180</v>
+      </c>
+      <c r="Q16">
+        <v>7717</v>
+      </c>
+      <c r="R16" t="s">
+        <v>332</v>
+      </c>
+      <c r="S16" s="24">
+        <v>10080</v>
+      </c>
+      <c r="T16" s="24"/>
+      <c r="U16">
+        <v>3551</v>
+      </c>
+      <c r="V16" t="s">
+        <v>243</v>
+      </c>
+      <c r="W16" s="27">
+        <v>199</v>
+      </c>
+      <c r="Y16">
+        <v>6728</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC16">
+        <v>6721</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE16">
+        <v>3</v>
+      </c>
+      <c r="AF16">
+        <v>156</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="3:36">
+      <c r="C17">
+        <v>4183</v>
+      </c>
+      <c r="D17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E17" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17">
+        <v>641</v>
+      </c>
+      <c r="H17">
+        <v>6258</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="J17" t="s">
+        <v>241</v>
+      </c>
+      <c r="K17" s="24">
+        <v>10180</v>
+      </c>
+      <c r="M17">
+        <v>6740</v>
+      </c>
+      <c r="N17" t="s">
+        <v>324</v>
+      </c>
+      <c r="O17">
+        <v>186</v>
+      </c>
+      <c r="Q17">
+        <v>7735</v>
+      </c>
+      <c r="R17" t="s">
+        <v>333</v>
+      </c>
+      <c r="S17" s="24">
+        <v>1095</v>
+      </c>
+      <c r="T17" s="24"/>
+      <c r="U17">
+        <v>7287</v>
+      </c>
+      <c r="V17" t="s">
+        <v>337</v>
+      </c>
+      <c r="W17" s="27">
+        <v>2225</v>
+      </c>
+      <c r="Y17">
+        <v>7717</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>336</v>
+      </c>
+      <c r="AC17">
+        <v>7751</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE17">
+        <v>3</v>
+      </c>
+      <c r="AF17">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="18" spans="3:36">
+      <c r="C18">
+        <v>4185</v>
+      </c>
       <c r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="3:17">
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="3:17">
+        <v>250</v>
+      </c>
+      <c r="E18" t="s">
+        <v>241</v>
+      </c>
+      <c r="F18" s="24">
+        <v>2096</v>
+      </c>
+      <c r="H18">
+        <v>6264</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="J18" t="s">
+        <v>294</v>
+      </c>
+      <c r="K18" s="24">
+        <v>1083</v>
+      </c>
+      <c r="M18">
+        <v>8035</v>
+      </c>
+      <c r="N18" t="s">
+        <v>325</v>
+      </c>
+      <c r="O18" s="24">
+        <v>15245</v>
+      </c>
+      <c r="U18">
+        <v>6773</v>
+      </c>
+      <c r="V18" t="s">
+        <v>338</v>
+      </c>
+      <c r="W18" s="27">
+        <v>198</v>
+      </c>
+      <c r="Y18">
+        <v>6264</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC18">
+        <v>1964</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE18">
+        <v>2</v>
+      </c>
+      <c r="AF18">
+        <v>216</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="3:36">
+      <c r="C19">
+        <v>4186</v>
+      </c>
+      <c r="D19" t="s">
+        <v>251</v>
+      </c>
+      <c r="E19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F19" s="24">
+        <v>3950</v>
+      </c>
+      <c r="H19">
+        <v>6266</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="J19" t="s">
+        <v>258</v>
+      </c>
+      <c r="K19" s="24">
+        <v>1717</v>
+      </c>
+      <c r="M19">
+        <v>4188</v>
+      </c>
+      <c r="N19" t="s">
+        <v>252</v>
+      </c>
+      <c r="O19" s="24">
+        <v>1016</v>
+      </c>
+      <c r="U19">
+        <v>5018</v>
+      </c>
+      <c r="V19" t="s">
+        <v>339</v>
+      </c>
+      <c r="W19" s="27">
+        <v>1999</v>
+      </c>
+      <c r="Y19">
+        <v>6384</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC19">
+        <v>3551</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE19">
+        <v>2</v>
+      </c>
+      <c r="AF19">
+        <v>200</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="3:36">
+      <c r="C20">
+        <v>4188</v>
+      </c>
       <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="3:17">
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="3:17">
+        <v>252</v>
+      </c>
+      <c r="E20" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="26">
+        <v>1016</v>
+      </c>
+      <c r="H20">
+        <v>6298</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="J20" t="s">
+        <v>241</v>
+      </c>
+      <c r="K20" s="24">
+        <v>1099</v>
+      </c>
+      <c r="M20">
+        <v>4960</v>
+      </c>
+      <c r="N20" t="s">
+        <v>326</v>
+      </c>
+      <c r="O20">
+        <v>366</v>
+      </c>
+      <c r="U20">
+        <v>1964</v>
+      </c>
+      <c r="V20" t="s">
+        <v>340</v>
+      </c>
+      <c r="W20" s="27">
+        <v>215</v>
+      </c>
+      <c r="Y20">
+        <v>6641</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC20">
+        <v>4004</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE20">
+        <v>2</v>
+      </c>
+      <c r="AF20">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="21" spans="3:36">
+      <c r="C21">
+        <v>4203</v>
+      </c>
+      <c r="D21" t="s">
+        <v>253</v>
+      </c>
+      <c r="E21" t="s">
+        <v>241</v>
+      </c>
+      <c r="F21">
+        <v>801</v>
+      </c>
+      <c r="H21">
+        <v>6302</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="J21" t="s">
+        <v>241</v>
+      </c>
+      <c r="K21">
+        <v>813</v>
+      </c>
+      <c r="M21">
+        <v>5216</v>
+      </c>
+      <c r="N21" t="s">
+        <v>327</v>
+      </c>
+      <c r="O21">
+        <v>206</v>
+      </c>
+      <c r="U21">
+        <v>6986</v>
+      </c>
+      <c r="V21" t="s">
+        <v>341</v>
+      </c>
+      <c r="W21" s="27">
+        <v>2007</v>
+      </c>
+      <c r="AC21">
+        <v>4188</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>354</v>
+      </c>
+      <c r="AE21">
+        <v>2</v>
+      </c>
+      <c r="AF21">
+        <v>1026</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="22" spans="3:36">
+      <c r="C22">
+        <v>4205</v>
+      </c>
       <c r="D22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17">
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="3:17">
-      <c r="C26" t="s">
-        <v>44</v>
+        <v>254</v>
+      </c>
+      <c r="E22" t="s">
+        <v>241</v>
+      </c>
+      <c r="F22" s="24">
+        <v>1382</v>
+      </c>
+      <c r="H22">
+        <v>6338</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="J22" t="s">
+        <v>260</v>
+      </c>
+      <c r="K22">
+        <v>790</v>
+      </c>
+      <c r="M22">
+        <v>6641</v>
+      </c>
+      <c r="N22" t="s">
+        <v>328</v>
+      </c>
+      <c r="O22" s="24">
+        <v>1302</v>
+      </c>
+      <c r="U22">
+        <v>7751</v>
+      </c>
+      <c r="V22" t="s">
+        <v>315</v>
+      </c>
+      <c r="W22" s="27">
+        <v>3715</v>
+      </c>
+      <c r="AC22">
+        <v>4364</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE22">
+        <v>2</v>
+      </c>
+      <c r="AF22">
+        <v>489</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="3:36">
+      <c r="C23">
+        <v>4208</v>
+      </c>
+      <c r="D23" t="s">
+        <v>255</v>
+      </c>
+      <c r="E23" t="s">
+        <v>241</v>
+      </c>
+      <c r="F23">
+        <v>303</v>
+      </c>
+      <c r="H23">
+        <v>6383</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="J23" t="s">
+        <v>241</v>
+      </c>
+      <c r="K23" s="24">
+        <v>4925</v>
+      </c>
+      <c r="M23">
+        <v>6721</v>
+      </c>
+      <c r="N23" t="s">
+        <v>304</v>
+      </c>
+      <c r="O23">
+        <v>153</v>
+      </c>
+      <c r="U23">
+        <v>3847</v>
+      </c>
+      <c r="V23" t="s">
+        <v>342</v>
+      </c>
+      <c r="W23" s="27">
+        <v>2722</v>
+      </c>
+      <c r="AC23">
+        <v>5401</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE23">
+        <v>2</v>
+      </c>
+      <c r="AF23" s="26">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="24" spans="3:36">
+      <c r="C24">
+        <v>4229</v>
+      </c>
+      <c r="D24" t="s">
+        <v>256</v>
+      </c>
+      <c r="E24" t="s">
+        <v>241</v>
+      </c>
+      <c r="F24" s="24">
+        <v>3545</v>
+      </c>
+      <c r="H24">
+        <v>6384</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="J24" t="s">
+        <v>258</v>
+      </c>
+      <c r="K24" s="24">
+        <v>1140</v>
+      </c>
+      <c r="U24">
+        <v>3089</v>
+      </c>
+      <c r="V24" t="s">
+        <v>343</v>
+      </c>
+      <c r="W24" s="27">
+        <v>1117</v>
+      </c>
+      <c r="AC24">
+        <v>6264</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE24">
+        <v>2</v>
+      </c>
+      <c r="AF24">
+        <v>1128</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="3:36">
+      <c r="C25">
+        <v>4239</v>
+      </c>
+      <c r="D25" t="s">
+        <v>257</v>
+      </c>
+      <c r="E25" t="s">
+        <v>258</v>
+      </c>
+      <c r="F25">
+        <v>869</v>
+      </c>
+      <c r="H25">
+        <v>6594</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="J25" t="s">
+        <v>241</v>
+      </c>
+      <c r="K25" s="24">
+        <v>12315</v>
+      </c>
+      <c r="U25">
+        <v>5401</v>
+      </c>
+      <c r="V25" t="s">
+        <v>344</v>
+      </c>
+      <c r="W25" s="27">
+        <v>2600.5</v>
+      </c>
+      <c r="AC25">
+        <v>6384</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE25">
+        <v>2</v>
+      </c>
+      <c r="AF25">
+        <v>1171</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="3:36">
+      <c r="C26">
+        <v>4364</v>
+      </c>
+      <c r="D26" t="s">
+        <v>259</v>
+      </c>
+      <c r="E26" t="s">
+        <v>260</v>
+      </c>
+      <c r="F26">
+        <v>476</v>
+      </c>
+      <c r="H26">
+        <v>6622</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="J26" t="s">
+        <v>241</v>
+      </c>
+      <c r="K26">
+        <v>932</v>
+      </c>
+      <c r="U26">
+        <v>4021</v>
+      </c>
+      <c r="V26" t="s">
+        <v>345</v>
+      </c>
+      <c r="W26" s="24">
+        <v>3865</v>
+      </c>
+      <c r="AC26">
+        <v>6907</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE26">
+        <v>2</v>
+      </c>
+      <c r="AF26">
+        <v>927</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="27" spans="3:36">
+      <c r="C27">
+        <v>4367</v>
+      </c>
+      <c r="D27" t="s">
+        <v>261</v>
+      </c>
+      <c r="E27" t="s">
+        <v>260</v>
+      </c>
+      <c r="F27">
+        <v>615</v>
+      </c>
+      <c r="H27">
+        <v>6641</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="J27" t="s">
+        <v>241</v>
+      </c>
+      <c r="K27" s="24">
+        <v>1302</v>
+      </c>
+      <c r="AC27">
+        <v>7735</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE27">
+        <v>2</v>
+      </c>
+      <c r="AF27">
+        <v>7320</v>
+      </c>
+    </row>
+    <row r="28" spans="3:36">
+      <c r="C28">
+        <v>4612</v>
+      </c>
+      <c r="D28" t="s">
+        <v>262</v>
+      </c>
+      <c r="E28" t="s">
+        <v>241</v>
+      </c>
+      <c r="F28" s="24">
+        <v>3680</v>
+      </c>
+      <c r="H28">
+        <v>6721</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="J28" t="s">
+        <v>260</v>
+      </c>
+      <c r="K28">
+        <v>153</v>
+      </c>
+      <c r="AC28">
+        <v>8035</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE28">
+        <v>2</v>
+      </c>
+      <c r="AF28">
+        <v>15415</v>
+      </c>
+    </row>
+    <row r="29" spans="3:36">
+      <c r="C29">
+        <v>4631</v>
+      </c>
+      <c r="D29" t="s">
+        <v>263</v>
+      </c>
+      <c r="E29" t="s">
+        <v>241</v>
+      </c>
+      <c r="F29" s="24">
+        <v>3760</v>
+      </c>
+      <c r="H29">
+        <v>6728</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="J29" t="s">
+        <v>241</v>
+      </c>
+      <c r="K29" s="24">
+        <v>5880</v>
+      </c>
+      <c r="AC29">
+        <v>3089</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>343</v>
+      </c>
+      <c r="AF29">
+        <v>1184</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="3:36">
+      <c r="C30">
+        <v>4634</v>
+      </c>
+      <c r="D30" t="s">
+        <v>264</v>
+      </c>
+      <c r="E30" t="s">
+        <v>241</v>
+      </c>
+      <c r="F30">
+        <v>610</v>
+      </c>
+      <c r="H30">
+        <v>6890</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="J30" t="s">
+        <v>258</v>
+      </c>
+      <c r="K30" s="24">
+        <v>1556</v>
+      </c>
+      <c r="AC30">
+        <v>3402</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF30">
+        <v>1031</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="3:36">
+      <c r="C31">
+        <v>4901</v>
+      </c>
+      <c r="D31" t="s">
+        <v>265</v>
+      </c>
+      <c r="E31" t="s">
+        <v>241</v>
+      </c>
+      <c r="F31" s="24">
+        <v>4205</v>
+      </c>
+      <c r="H31">
+        <v>7003</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="J31" t="s">
+        <v>241</v>
+      </c>
+      <c r="K31">
+        <v>136</v>
+      </c>
+      <c r="AC31">
+        <v>3580</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF31">
+        <v>845</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="3:36">
+      <c r="C32">
+        <v>4960</v>
+      </c>
+      <c r="D32" t="s">
+        <v>266</v>
+      </c>
+      <c r="E32" t="s">
+        <v>260</v>
+      </c>
+      <c r="F32">
+        <v>366</v>
+      </c>
+      <c r="H32">
+        <v>7004</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="J32" t="s">
+        <v>241</v>
+      </c>
+      <c r="K32">
+        <v>534</v>
+      </c>
+      <c r="AC32">
+        <v>3847</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="33" spans="3:36">
+      <c r="C33">
+        <v>4970</v>
+      </c>
+      <c r="D33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E33" t="s">
+        <v>258</v>
+      </c>
+      <c r="F33" s="24">
+        <v>1254</v>
+      </c>
+      <c r="H33">
+        <v>7011</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="J33" t="s">
+        <v>241</v>
+      </c>
+      <c r="K33">
+        <v>418.7</v>
+      </c>
+      <c r="AC33">
+        <v>4021</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF33">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="34" spans="3:36">
+      <c r="C34">
+        <v>4980</v>
+      </c>
+      <c r="D34" t="s">
+        <v>268</v>
+      </c>
+      <c r="E34" t="s">
+        <v>241</v>
+      </c>
+      <c r="F34" s="24">
+        <v>1418</v>
+      </c>
+      <c r="H34">
+        <v>7609</v>
+      </c>
+      <c r="I34" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="J34" t="s">
+        <v>241</v>
+      </c>
+      <c r="K34" s="24">
+        <v>1800</v>
+      </c>
+      <c r="AC34">
+        <v>4042</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF34">
+        <v>1289</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="35" spans="3:36">
+      <c r="C35">
+        <v>5019</v>
+      </c>
+      <c r="D35" t="s">
+        <v>269</v>
+      </c>
+      <c r="E35" t="s">
+        <v>241</v>
+      </c>
+      <c r="F35" s="24">
+        <v>2783</v>
+      </c>
+      <c r="H35">
+        <v>7709</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="J35" t="s">
+        <v>241</v>
+      </c>
+      <c r="K35">
+        <v>533</v>
+      </c>
+      <c r="AC35">
+        <v>4118</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>323</v>
+      </c>
+      <c r="AF35">
+        <v>851</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="3:36">
+      <c r="C36">
+        <v>5020</v>
+      </c>
+      <c r="D36" t="s">
+        <v>270</v>
+      </c>
+      <c r="E36" t="s">
+        <v>241</v>
+      </c>
+      <c r="F36">
+        <v>535</v>
+      </c>
+      <c r="H36">
+        <v>7711</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="J36" t="s">
+        <v>258</v>
+      </c>
+      <c r="K36">
+        <v>720</v>
+      </c>
+      <c r="AC36">
+        <v>4120</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>348</v>
+      </c>
+      <c r="AF36">
+        <v>135</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="37" spans="3:36">
+      <c r="C37">
+        <v>5142</v>
+      </c>
+      <c r="D37" t="s">
+        <v>271</v>
+      </c>
+      <c r="E37" t="s">
+        <v>241</v>
+      </c>
+      <c r="F37" s="24">
+        <v>2192</v>
+      </c>
+      <c r="H37">
+        <v>7717</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="J37" t="s">
+        <v>241</v>
+      </c>
+      <c r="K37" s="24">
+        <v>17950</v>
+      </c>
+      <c r="AC37">
+        <v>4183</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF37">
+        <v>657</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="3:36">
+      <c r="C38">
+        <v>5201</v>
+      </c>
+      <c r="D38" t="s">
+        <v>272</v>
+      </c>
+      <c r="E38" t="s">
+        <v>241</v>
+      </c>
+      <c r="F38" s="24">
+        <v>4155</v>
+      </c>
+      <c r="H38">
+        <v>7735</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="J38" t="s">
+        <v>241</v>
+      </c>
+      <c r="K38" s="24">
+        <v>7260</v>
+      </c>
+      <c r="AC38">
+        <v>4185</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF38">
+        <v>2112</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="3:36">
+      <c r="C39">
+        <v>5214</v>
+      </c>
+      <c r="D39" t="s">
+        <v>273</v>
+      </c>
+      <c r="E39" t="s">
+        <v>241</v>
+      </c>
+      <c r="F39" s="24">
+        <v>4055</v>
+      </c>
+      <c r="H39">
+        <v>7751</v>
+      </c>
+      <c r="I39" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="J39" t="s">
+        <v>241</v>
+      </c>
+      <c r="K39" s="24">
+        <v>3715</v>
+      </c>
+      <c r="AC39">
+        <v>4186</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF39">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="40" spans="3:36">
+      <c r="C40">
+        <v>5216</v>
+      </c>
+      <c r="D40" t="s">
+        <v>274</v>
+      </c>
+      <c r="E40" t="s">
+        <v>258</v>
+      </c>
+      <c r="F40">
+        <v>206</v>
+      </c>
+      <c r="H40">
+        <v>7912</v>
+      </c>
+      <c r="I40" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="J40" t="s">
+        <v>241</v>
+      </c>
+      <c r="K40" s="24">
+        <v>1278</v>
+      </c>
+      <c r="AC40">
+        <v>4203</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF40">
+        <v>816</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="3:36">
+      <c r="C41">
+        <v>5401</v>
+      </c>
+      <c r="D41" t="s">
+        <v>275</v>
+      </c>
+      <c r="E41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F41" s="26">
+        <v>2600.5</v>
+      </c>
+      <c r="H41">
+        <v>8035</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="J41" t="s">
+        <v>241</v>
+      </c>
+      <c r="K41" s="24">
+        <v>15245</v>
+      </c>
+      <c r="AC41">
+        <v>4205</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF41">
+        <v>1406</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="42" spans="3:36">
+      <c r="C42">
+        <v>5706</v>
+      </c>
+      <c r="D42" t="s">
+        <v>276</v>
+      </c>
+      <c r="E42" t="s">
+        <v>241</v>
+      </c>
+      <c r="F42">
+        <v>566</v>
+      </c>
+      <c r="H42">
+        <v>8036</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="J42" t="s">
+        <v>241</v>
+      </c>
+      <c r="K42" s="24">
+        <v>3920</v>
+      </c>
+      <c r="AC42">
+        <v>4208</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF42">
+        <v>305</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="3:36">
+      <c r="C43">
+        <v>5711</v>
+      </c>
+      <c r="D43" t="s">
+        <v>277</v>
+      </c>
+      <c r="E43" t="s">
+        <v>241</v>
+      </c>
+      <c r="F43" s="24">
+        <v>3900</v>
+      </c>
+      <c r="I43" s="25"/>
+      <c r="AC43">
+        <v>4229</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF43">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="44" spans="3:36">
+      <c r="C44">
+        <v>6866</v>
+      </c>
+      <c r="D44" t="s">
+        <v>278</v>
+      </c>
+      <c r="E44" t="s">
+        <v>241</v>
+      </c>
+      <c r="F44" s="24">
+        <v>2127</v>
+      </c>
+      <c r="I44" s="25"/>
+      <c r="AC44">
+        <v>4239</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>257</v>
+      </c>
+      <c r="AF44">
+        <v>870</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="3:36">
+      <c r="C45">
+        <v>6907</v>
+      </c>
+      <c r="D45" t="s">
+        <v>279</v>
+      </c>
+      <c r="E45" t="s">
+        <v>258</v>
+      </c>
+      <c r="F45">
+        <v>917</v>
+      </c>
+      <c r="I45" s="25"/>
+      <c r="AC45">
+        <v>4367</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF45">
+        <v>629</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="46" spans="3:36">
+      <c r="C46">
+        <v>7826</v>
+      </c>
+      <c r="D46" t="s">
+        <v>280</v>
+      </c>
+      <c r="E46" t="s">
+        <v>258</v>
+      </c>
+      <c r="F46" s="24">
+        <v>3450</v>
+      </c>
+      <c r="I46" s="25"/>
+      <c r="AC46">
+        <v>4612</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>262</v>
+      </c>
+      <c r="AF46">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="47" spans="3:36">
+      <c r="C47">
+        <v>7915</v>
+      </c>
+      <c r="D47" t="s">
+        <v>281</v>
+      </c>
+      <c r="E47" t="s">
+        <v>241</v>
+      </c>
+      <c r="F47" s="24">
+        <v>2820</v>
+      </c>
+      <c r="I47" s="25"/>
+      <c r="AC47">
+        <v>4631</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF47">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="48" spans="3:36">
+      <c r="C48">
+        <v>7966</v>
+      </c>
+      <c r="D48" t="s">
+        <v>282</v>
+      </c>
+      <c r="E48" t="s">
+        <v>241</v>
+      </c>
+      <c r="F48" s="24">
+        <v>2971</v>
+      </c>
+      <c r="I48" s="25"/>
+      <c r="AC48">
+        <v>4634</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF48">
+        <v>614</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="49" spans="29:34">
+      <c r="AC49">
+        <v>4901</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF49">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="50" spans="29:34">
+      <c r="AC50">
+        <v>4902</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF50">
+        <v>852</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="29:34">
+      <c r="AC51">
+        <v>4970</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF51">
+        <v>1275</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="29:34">
+      <c r="AC52">
+        <v>4980</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF52">
+        <v>1419</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="29:34">
+      <c r="AC53">
+        <v>5018</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>339</v>
+      </c>
+      <c r="AF53">
+        <v>2057</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="29:34">
+      <c r="AC54">
+        <v>5020</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF54">
+        <v>537</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="29:34">
+      <c r="AC55">
+        <v>5121</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>285</v>
+      </c>
+      <c r="AF55">
+        <v>913</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="29:34">
+      <c r="AC56">
+        <v>5142</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF56">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="57" spans="29:34">
+      <c r="AC57">
+        <v>1518</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF57">
+        <v>1410</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="29:34">
+      <c r="AC58">
+        <v>5201</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF58">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="59" spans="29:34">
+      <c r="AC59">
+        <v>5214</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF59">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="60" spans="29:34">
+      <c r="AC60">
+        <v>5218</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF60">
+        <v>1658</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="29:34">
+      <c r="AC61">
+        <v>5333</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>287</v>
+      </c>
+      <c r="AF61">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="62" spans="29:34">
+      <c r="AC62">
+        <v>5542</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF62">
+        <v>1275</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="29:34">
+      <c r="AC63">
+        <v>5631</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF63">
+        <v>2264</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="29:34">
+      <c r="AC64">
+        <v>5703</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF64">
+        <v>322</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="29:36">
+      <c r="AC65">
+        <v>5706</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF65">
+        <v>565</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="29:36">
+      <c r="AC66">
+        <v>5711</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF66" s="24">
+        <v>3885</v>
+      </c>
+    </row>
+    <row r="67" spans="29:36">
+      <c r="AC67">
+        <v>6254</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>291</v>
+      </c>
+      <c r="AF67">
+        <v>825</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="29:36">
+      <c r="AC68">
+        <v>6266</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>295</v>
+      </c>
+      <c r="AF68">
+        <v>1758</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="69" spans="29:36">
+      <c r="AC69">
+        <v>6298</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>296</v>
+      </c>
+      <c r="AF69">
+        <v>1118</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="29:36">
+      <c r="AC70">
+        <v>6302</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>297</v>
+      </c>
+      <c r="AF70">
+        <v>847</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="71" spans="29:36">
+      <c r="AC71">
+        <v>6338</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>298</v>
+      </c>
+      <c r="AF71">
+        <v>808</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="72" spans="29:36">
+      <c r="AC72">
+        <v>6383</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>299</v>
+      </c>
+      <c r="AF72">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="73" spans="29:36">
+      <c r="AC73">
+        <v>6594</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF73">
+        <v>12835</v>
+      </c>
+    </row>
+    <row r="74" spans="29:36">
+      <c r="AC74">
+        <v>6622</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF74">
+        <v>942</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="75" spans="29:36">
+      <c r="AC75">
+        <v>6740</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF75">
+        <v>187</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="29:36">
+      <c r="AC76">
+        <v>6773</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF76">
+        <v>201</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="29:36">
+      <c r="AC77">
+        <v>6866</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF77" s="24">
+        <v>2127</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="29:36">
+      <c r="AC78">
+        <v>6890</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF78">
+        <v>1587</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="29:36">
+      <c r="AC79">
+        <v>6952</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>335</v>
+      </c>
+      <c r="AF79">
+        <v>1523</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="29:36">
+      <c r="AC80">
+        <v>6986</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF80">
+        <v>2049</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="29:36">
+      <c r="AC81">
+        <v>7003</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF81">
+        <v>135</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="82" spans="29:36">
+      <c r="AC82">
+        <v>7004</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF82">
+        <v>539</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ82" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="83" spans="29:36">
+      <c r="AC83">
+        <v>7011</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF83">
+        <v>418</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="84" spans="29:36">
+      <c r="AC84">
+        <v>7287</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF84">
+        <v>2242</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="85" spans="29:36">
+      <c r="AC85">
+        <v>7609</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>310</v>
+      </c>
+      <c r="AF85">
+        <v>1868</v>
+      </c>
+      <c r="AH85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="29:36">
+      <c r="AC86">
+        <v>7709</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>311</v>
+      </c>
+      <c r="AF86">
+        <v>538</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="87" spans="29:36">
+      <c r="AC87">
+        <v>7711</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF87">
+        <v>729</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="29:36">
+      <c r="AC88">
+        <v>7826</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF88" s="24">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="89" spans="29:36">
+      <c r="AC89">
+        <v>7912</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF89">
+        <v>1302</v>
+      </c>
+      <c r="AG89" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="90" spans="29:36">
+      <c r="AC90">
+        <v>7915</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF90" s="24">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="91" spans="29:36">
+      <c r="AC91">
+        <v>7966</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF91" s="24">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="92" spans="29:36">
+      <c r="AC92">
+        <v>8036</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>318</v>
+      </c>
+      <c r="AF92" s="24">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="106" spans="21:24">
+      <c r="U106">
+        <v>4960</v>
+      </c>
+      <c r="V106" t="s">
+        <v>353</v>
+      </c>
+      <c r="W106">
+        <v>4</v>
+      </c>
+      <c r="X106" s="27">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="107" spans="21:24">
+      <c r="U107">
+        <v>6641</v>
+      </c>
+      <c r="V107" t="s">
+        <v>328</v>
+      </c>
+      <c r="W107">
+        <v>4</v>
+      </c>
+      <c r="X107">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="108" spans="21:24">
+      <c r="U108">
+        <v>4005</v>
+      </c>
+      <c r="V108" t="s">
+        <v>320</v>
+      </c>
+      <c r="W108">
+        <v>3</v>
+      </c>
+      <c r="X108">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="109" spans="21:24">
+      <c r="U109">
+        <v>6907</v>
+      </c>
+      <c r="V109" t="s">
+        <v>279</v>
+      </c>
+      <c r="W109">
+        <v>2</v>
+      </c>
+      <c r="X109">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="110" spans="21:24">
+      <c r="U110">
+        <v>6266</v>
+      </c>
+      <c r="V110" t="s">
+        <v>295</v>
+      </c>
+      <c r="X110">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="111" spans="21:24">
+      <c r="U111">
+        <v>7709</v>
+      </c>
+      <c r="V111" t="s">
+        <v>311</v>
+      </c>
+      <c r="X111">
+        <v>538</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="AC6:AE92">
+    <sortCondition descending="1" ref="AE7"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
